--- a/data/577 Projects/2015-2016/COCOMO Estimation.xlsx
+++ b/data/577 Projects/2015-2016/COCOMO Estimation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11652" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="7464"/>
   </bookViews>
   <sheets>
     <sheet name="Cocomo Effort Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Estimation Model Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>PROJ</t>
   </si>
@@ -204,12 +204,39 @@
   </si>
   <si>
     <t>Local Storage</t>
+  </si>
+  <si>
+    <t>f15a_PicshareApp_RA</t>
+  </si>
+  <si>
+    <t>f15b_PicShare</t>
+  </si>
+  <si>
+    <t>f15a_Lingggo</t>
+  </si>
+  <si>
+    <t>f15a_CombatConflict</t>
+  </si>
+  <si>
+    <t>f15a_Tour_Conductor</t>
+  </si>
+  <si>
+    <t>f15a_ConstructionMeeting_MinutesApp</t>
+  </si>
+  <si>
+    <t>f15a_NICE</t>
+  </si>
+  <si>
+    <t>Effort (PM)</t>
+  </si>
+  <si>
+    <t>Effort (PH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,23 +454,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,23 +489,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,38 +665,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="126.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
-    <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="24.88671875" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
-    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="39" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="22" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.88671875" customWidth="1"/>
+    <col min="23" max="23" width="24.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" customWidth="1"/>
+    <col min="25" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,74 +707,80 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -798,25 +798,28 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -832,17 +835,19 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -858,124 +863,136 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E5" s="6">
+        <f>8.95*156</f>
+        <v>1396.1999999999998</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8">
+      <c r="H5" s="8">
         <v>2468</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H5" s="8">
+      <c r="J5" s="8">
         <v>8.07</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>53</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>0.6</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>7.16</v>
       </c>
-      <c r="M5" s="8">
+      <c r="O5" s="8">
         <v>6.77</v>
       </c>
-      <c r="N5" s="8">
+      <c r="P5" s="8">
         <v>704.28</v>
       </c>
-      <c r="O5" s="8">
+      <c r="Q5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="R5" s="8">
         <v>8.9499999999999993</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="S5" s="8">
         <v>7.26</v>
       </c>
-      <c r="R5" s="8">
+      <c r="T5" s="8">
         <v>563.41999999999996</v>
       </c>
-      <c r="S5" s="8">
+      <c r="U5" s="8">
         <v>1.2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="V5" s="8">
         <v>11.18</v>
       </c>
-      <c r="U5" s="8">
+      <c r="W5" s="8">
         <v>7.78</v>
       </c>
-      <c r="V5" s="8">
+      <c r="X5" s="8">
         <v>450.74</v>
       </c>
-      <c r="W5" s="8">
+      <c r="Y5" s="8">
         <v>1.4</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E6" s="11" t="s">
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1943</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>6.36</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3.66</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>53</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E7" s="11" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>630</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.33</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>2.06</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.67</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>93</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1000,128 +1017,140 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <f>D9*156</f>
+        <v>1872</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1150</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.17</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>3.8</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>4.5</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>257.60000000000002</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.6</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>9.6</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>7.5</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>358.9</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>1.3</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>12</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>8.1</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>287.10000000000002</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1.5</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>229.7</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E10" s="11" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1150</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.6</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3.8</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>501.1</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E11" s="11" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1150</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.37</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>3.8</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>5.3</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>218.8</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1140,102 +1169,113 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="E13" s="6">
+        <f>D13*156</f>
+        <v>1669.1999999999998</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>126</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>0.88</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>0.5</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>0.4</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
         <v>290.3</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>0.1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>8.6</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>7.2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>249.3</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="4">
         <v>1.2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="R13" s="4">
         <v>10.7</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <v>7.7</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <v>199.4</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>1.4</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <v>13.4</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>159.6</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <v>1.6</v>
       </c>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="11">
+      <c r="H14" s="11">
         <v>126</v>
       </c>
-      <c r="G14" s="11">
+      <c r="I14" s="11">
         <v>0.92</v>
       </c>
-      <c r="H14" s="11">
+      <c r="J14" s="11">
         <v>0.5</v>
       </c>
-      <c r="I14" s="11">
+      <c r="K14" s="11">
         <v>0.5</v>
       </c>
-      <c r="J14" s="11">
+      <c r="L14" s="11">
         <v>278.89999999999998</v>
       </c>
-      <c r="K14" s="11">
+      <c r="M14" s="11">
         <v>0.1</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1247,33 +1287,34 @@
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="11">
+      <c r="H15" s="11">
         <v>1890</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I15" s="11">
         <v>1.33</v>
       </c>
-      <c r="H15" s="11">
+      <c r="J15" s="11">
         <v>7.4</v>
       </c>
-      <c r="I15" s="11">
+      <c r="K15" s="11">
         <v>9.9</v>
       </c>
-      <c r="J15" s="11">
+      <c r="L15" s="11">
         <v>191.8</v>
       </c>
-      <c r="K15" s="11">
+      <c r="M15" s="11">
         <v>1.3</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1285,12 +1326,13 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1309,172 +1351,183 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7.78</v>
+      </c>
+      <c r="E17" s="6">
+        <f>D17*156</f>
+        <v>1213.68</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>920</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.41</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>3.19</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1.32</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>698.34</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.2</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>6.22</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>6.55</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>903.93</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.9</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>7.78</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>7.03</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>723.14</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>9.7200000000000006</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>7.55</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>578.52</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1540</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.38</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>5.34</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>767.34</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>315</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.21</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.23</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>1390.9</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2300</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.41</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7.98</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>3.29</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>698.28</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="6" t="s">
+    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="6">
+      <c r="H21" s="6">
         <v>550</v>
       </c>
-      <c r="G21" s="6">
+      <c r="I21" s="6">
         <v>0.49</v>
       </c>
-      <c r="H21" s="6">
+      <c r="J21" s="6">
         <v>1.91</v>
       </c>
-      <c r="I21" s="6">
+      <c r="K21" s="6">
         <v>0.93</v>
       </c>
-      <c r="J21" s="6">
+      <c r="L21" s="6">
         <v>588.91</v>
       </c>
-      <c r="K21" s="6">
+      <c r="M21" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1494,149 +1547,160 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="E23" s="6">
+        <f>D23*156</f>
+        <v>452.4</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="11">
+      <c r="H23" s="11">
         <v>345</v>
       </c>
-      <c r="G23" s="11">
+      <c r="I23" s="11">
         <v>0.84</v>
       </c>
-      <c r="H23" s="11">
+      <c r="J23" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="11">
+      <c r="K23" s="11">
         <v>0.9</v>
       </c>
-      <c r="J23" s="11">
+      <c r="L23" s="11">
         <v>402</v>
       </c>
-      <c r="K23" s="11">
+      <c r="M23" s="11">
         <v>0.2</v>
       </c>
-      <c r="L23" s="11">
+      <c r="N23" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M23" s="11">
+      <c r="O23" s="11">
         <v>4.8</v>
       </c>
-      <c r="N23" s="11">
+      <c r="P23" s="11">
         <v>502.5</v>
       </c>
-      <c r="O23" s="11">
+      <c r="Q23" s="11">
         <v>0.5</v>
       </c>
-      <c r="P23" s="11">
+      <c r="R23" s="11">
         <v>2.9</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="S23" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R23" s="11">
+      <c r="T23" s="11">
         <v>402</v>
       </c>
-      <c r="S23" s="11">
+      <c r="U23" s="11">
         <v>0.6</v>
       </c>
-      <c r="T23" s="11">
+      <c r="V23" s="11">
         <v>3.6</v>
       </c>
-      <c r="U23" s="11">
+      <c r="W23" s="11">
         <v>5.5</v>
       </c>
-      <c r="V23" s="11">
+      <c r="X23" s="11">
         <v>321.60000000000002</v>
       </c>
-      <c r="W23" s="11">
+      <c r="Y23" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E24" s="11" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="11">
+      <c r="H24" s="11">
         <v>229</v>
       </c>
-      <c r="G24" s="11">
+      <c r="I24" s="11">
         <v>0.84</v>
       </c>
-      <c r="H24" s="11">
+      <c r="J24" s="11">
         <v>0.7</v>
       </c>
-      <c r="I24" s="11">
+      <c r="K24" s="11">
         <v>0.6</v>
       </c>
-      <c r="J24" s="11">
+      <c r="L24" s="11">
         <v>402</v>
       </c>
-      <c r="K24" s="11">
+      <c r="M24" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E25" s="11" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="11">
+      <c r="H25" s="11">
         <v>229</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I25" s="11">
         <v>0.84</v>
       </c>
-      <c r="H25" s="11">
+      <c r="J25" s="11">
         <v>0.7</v>
       </c>
-      <c r="I25" s="11">
+      <c r="K25" s="11">
         <v>0.6</v>
       </c>
-      <c r="J25" s="11">
+      <c r="L25" s="11">
         <v>402</v>
       </c>
-      <c r="K25" s="11">
+      <c r="M25" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E26" s="11" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="11">
+      <c r="H26" s="11">
         <v>345</v>
       </c>
-      <c r="G26" s="11">
+      <c r="I26" s="11">
         <v>0.84</v>
       </c>
-      <c r="H26" s="11">
+      <c r="J26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="11">
+      <c r="K26" s="11">
         <v>0.9</v>
       </c>
-      <c r="J26" s="11">
+      <c r="L26" s="11">
         <v>402</v>
       </c>
-      <c r="K26" s="11">
+      <c r="M26" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1656,149 +1720,159 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="E28" s="6">
+        <f>D28*156</f>
+        <v>1263.5999999999999</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="11">
+      <c r="H28" s="11">
         <v>603</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="11">
         <v>1.31</v>
       </c>
-      <c r="H28" s="11">
+      <c r="J28" s="11">
         <v>2</v>
       </c>
-      <c r="I28" s="11">
+      <c r="K28" s="11">
         <v>2.6</v>
       </c>
-      <c r="J28" s="11">
+      <c r="L28" s="11">
         <v>234.2</v>
       </c>
-      <c r="K28" s="11">
+      <c r="M28" s="11">
         <v>0.4</v>
       </c>
-      <c r="L28" s="11">
+      <c r="N28" s="11">
         <v>6.5</v>
       </c>
-      <c r="M28" s="11">
+      <c r="O28" s="11">
         <v>6.8</v>
       </c>
-      <c r="N28" s="11">
+      <c r="P28" s="11">
         <v>316</v>
       </c>
-      <c r="O28" s="11">
+      <c r="Q28" s="11">
         <v>1</v>
       </c>
-      <c r="P28" s="11">
+      <c r="R28" s="11">
         <v>8.1</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="S28" s="11">
         <v>7.3</v>
       </c>
-      <c r="R28" s="11">
+      <c r="T28" s="11">
         <v>252.8</v>
       </c>
-      <c r="S28" s="11">
+      <c r="U28" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T28" s="11">
+      <c r="V28" s="11">
         <v>10.1</v>
       </c>
-      <c r="U28" s="11">
+      <c r="W28" s="11">
         <v>7.8</v>
       </c>
-      <c r="V28" s="11">
+      <c r="X28" s="11">
         <v>202.2</v>
       </c>
-      <c r="W28" s="11">
+      <c r="Y28" s="11">
         <v>1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="11">
+      <c r="H29" s="11">
         <v>804</v>
       </c>
-      <c r="G29" s="11">
+      <c r="I29" s="11">
         <v>1.31</v>
       </c>
-      <c r="H29" s="11">
+      <c r="J29" s="11">
         <v>2.6</v>
       </c>
-      <c r="I29" s="11">
+      <c r="K29" s="11">
         <v>3.4</v>
       </c>
-      <c r="J29" s="11">
+      <c r="L29" s="11">
         <v>234.2</v>
       </c>
-      <c r="K29" s="11">
+      <c r="M29" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="11">
+      <c r="H30" s="11">
         <v>402</v>
       </c>
-      <c r="G30" s="11">
+      <c r="I30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="11">
+      <c r="J30" s="11">
         <v>1.3</v>
       </c>
-      <c r="I30" s="11">
+      <c r="K30" s="11">
         <v>1.3</v>
       </c>
-      <c r="J30" s="11">
+      <c r="L30" s="11">
         <v>306</v>
       </c>
-      <c r="K30" s="11">
+      <c r="M30" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="11">
+      <c r="H31" s="11">
         <v>241</v>
       </c>
-      <c r="G31" s="11">
+      <c r="I31" s="11">
         <v>1</v>
       </c>
-      <c r="H31" s="11">
+      <c r="J31" s="11">
         <v>0.8</v>
       </c>
-      <c r="I31" s="11">
+      <c r="K31" s="11">
         <v>0.8</v>
       </c>
-      <c r="J31" s="11">
+      <c r="L31" s="11">
         <v>306</v>
       </c>
-      <c r="K31" s="11">
+      <c r="M31" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1818,14 +1892,14 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1846,13 +1920,13 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1873,14 +1947,14 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-    </row>
-    <row r="38" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1901,14 +1975,14 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-    </row>
-    <row r="40" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1929,13 +2003,13 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1956,13 +2030,13 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -1983,13 +2057,13 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -2010,13 +2084,13 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -2037,13 +2111,13 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -2064,14 +2138,14 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-    </row>
-    <row r="47" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2092,13 +2166,13 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -2119,14 +2193,14 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-    </row>
-    <row r="50" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -2147,13 +2221,13 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2174,13 +2248,13 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2201,13 +2275,13 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -2228,13 +2302,13 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2255,13 +2329,13 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2282,13 +2356,13 @@
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2309,13 +2383,13 @@
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2336,13 +2410,13 @@
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2363,13 +2437,13 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2390,13 +2464,13 @@
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2417,13 +2491,13 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2444,13 +2518,13 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2471,13 +2545,13 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2498,13 +2572,13 @@
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -2525,13 +2599,13 @@
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -2552,13 +2626,13 @@
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -2579,13 +2653,13 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -2606,13 +2680,13 @@
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -2633,13 +2707,13 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -2660,13 +2734,13 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -2687,13 +2761,13 @@
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -2714,13 +2788,13 @@
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -2741,13 +2815,13 @@
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -2768,13 +2842,13 @@
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -2795,13 +2869,13 @@
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -2822,13 +2896,13 @@
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -2849,13 +2923,13 @@
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -2876,13 +2950,13 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -2903,13 +2977,13 @@
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -2930,13 +3004,13 @@
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -2957,13 +3031,13 @@
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -2984,13 +3058,13 @@
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -3011,13 +3085,13 @@
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -3038,13 +3112,13 @@
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -3065,13 +3139,13 @@
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -3092,13 +3166,13 @@
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -3119,13 +3193,13 @@
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -3146,6 +3220,8 @@
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
